--- a/hw2_data.xlsx
+++ b/hw2_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devon\Documents\Machine Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33887AC2-AE0C-436D-89D6-E9B2DD510049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485232AF-C37E-4A84-ADD0-B58F36AB56AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="1620" windowWidth="21600" windowHeight="12930" xr2:uid="{6AD5BAA0-EE9B-4039-B1BC-53E57E12A35B}"/>
+    <workbookView xWindow="5895" yWindow="1680" windowWidth="21600" windowHeight="12930" xr2:uid="{6AD5BAA0-EE9B-4039-B1BC-53E57E12A35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,8 +131,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Logistic Regression Results</a:t>
+              <a:t>Logistic</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Regression Accuracy</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -168,8 +173,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -186,17 +192,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
@@ -233,27 +237,26 @@
                   <c:v>0.91887066744879997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91887066744879997</c:v>
+                  <c:v>0.91764645872121198</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.91966130225203402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91887066744879997</c:v>
+                  <c:v>0.91843709352444503</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91887066744879997</c:v>
+                  <c:v>0.919635797903542</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91902879440944596</c:v>
+                  <c:v>0.91885026397000602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-18BC-4B05-9151-9812F534B58F}"/>
+              <c16:uniqueId val="{00000000-5C7F-4852-97CE-0C39DF7616F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -272,17 +275,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
@@ -319,27 +320,26 @@
                   <c:v>0.91889741287847804</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91889741287847804</c:v>
+                  <c:v>0.918877009711907</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.91873418754590697</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91889741287847804</c:v>
+                  <c:v>0.91928507304333595</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91889741287847804</c:v>
+                  <c:v>0.91891781604504996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91886476781196402</c:v>
+                  <c:v>0.91894229984493503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-18BC-4B05-9151-9812F534B58F}"/>
+              <c16:uniqueId val="{00000001-5C7F-4852-97CE-0C39DF7616F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -351,12 +351,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="365957064"/>
-        <c:axId val="368727144"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="364958912"/>
+        <c:axId val="364955960"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="365957064"/>
+        <c:axId val="364958912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -399,7 +400,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368727144"/>
+        <c:crossAx val="364955960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -407,7 +408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="368727144"/>
+        <c:axId val="364955960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -458,7 +459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365957064"/>
+        <c:crossAx val="364958912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -579,7 +580,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -687,11 +688,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -702,11 +698,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -738,9 +729,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1099,22 +1087,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C00CF82-EEDD-452D-B087-3F025448BF52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CF8BAF-7B4B-4EA3-A624-0A4959E8AAF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1435,7 +1423,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,10 +1455,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.91887066744879997</v>
+        <v>0.91764645872121198</v>
       </c>
       <c r="C3">
-        <v>0.91889741287847804</v>
+        <v>0.918877009711907</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1489,10 +1477,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.91887066744879997</v>
+        <v>0.91843709352444503</v>
       </c>
       <c r="C5">
-        <v>0.91889741287847804</v>
+        <v>0.91928507304333595</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1500,10 +1488,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.91887066744879997</v>
+        <v>0.919635797903542</v>
       </c>
       <c r="C6">
-        <v>0.91889741287847804</v>
+        <v>0.91891781604504996</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1511,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0.91902879440944596</v>
+        <v>0.91885026397000602</v>
       </c>
       <c r="C7">
-        <v>0.91886476781196402</v>
+        <v>0.91894229984493503</v>
       </c>
     </row>
   </sheetData>
